--- a/biology/Médecine/Charles_Merzbach/Charles_Merzbach.xlsx
+++ b/biology/Médecine/Charles_Merzbach/Charles_Merzbach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Ezriel Merzbach (6 décembre 1913[1] à Paris - 7 juin 1985 à Gaza[2]) est un médecin français qui joue un rôle important dans la communauté juive orthodoxe parisienne avant de s'établir en Israël.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Ezriel Merzbach (6 décembre 1913 à Paris - 7 juin 1985 à Gaza) est un médecin français qui joue un rôle important dans la communauté juive orthodoxe parisienne avant de s'établir en Israël.
 </t>
         </is>
       </c>
@@ -511,17 +523,19 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Merzbach est né le 6 décembre 1913 dans le 16e arrondissement de Paris. Il est le fils de Georges Jacob Merzbach (1874-1939) et de Fogel H'aya Alice  Reitlinger (1883, New-York, 1966, Paris)[3]. Georges Merzbach est un banquier. Si son père n'est pas très religieux,  Charles Merzbach le devient[4].
-Il épouse Suzie (Suzanne) Merzbach, née Meyer, fille de Reouven Meyer, le 12 novembre 1940, à Vichy (Allier). Ils ont 11 enfants (5 fils et 6 filles)[5]. 
-Après la Seconde Guerre mondiale, il prête sa propriété du Château d'Ambloy (Loir-et-Cher) acquise par son père, à l'Œuvre de secours aux enfants (OSE)[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Merzbach est né le 6 décembre 1913 dans le 16e arrondissement de Paris. Il est le fils de Georges Jacob Merzbach (1874-1939) et de Fogel H'aya Alice  Reitlinger (1883, New-York, 1966, Paris). Georges Merzbach est un banquier. Si son père n'est pas très religieux,  Charles Merzbach le devient.
+Il épouse Suzie (Suzanne) Merzbach, née Meyer, fille de Reouven Meyer, le 12 novembre 1940, à Vichy (Allier). Ils ont 11 enfants (5 fils et 6 filles). 
+Après la Seconde Guerre mondiale, il prête sa propriété du Château d'Ambloy (Loir-et-Cher) acquise par son père, à l'Œuvre de secours aux enfants (OSE).
 Il pratique la médecine à Paris. Il est un circonciseur (Mohel) et publie un ouvrage sur la Brit Milah, en 1952.
-Il fonde le groupe Rabbi Ye'hiel de Paris[7],[8].
-Il intervient dans le débat public en 1966 sur le livre de Jean-François Steiner, sur Treblinka, au Théâtre des Ambassadeurs (aujourd'hui Espace Cardin)[9].
+Il fonde le groupe Rabbi Ye'hiel de Paris,.
+Il intervient dans le débat public en 1966 sur le livre de Jean-François Steiner, sur Treblinka, au Théâtre des Ambassadeurs (aujourd'hui Espace Cardin).
 En 1967, il immigre en Israël et s'installe à Jérusalem.
-Il est décédé avec son épouse dans un accident d'automobile causé par un autobus de la Coopérative d'autobus Egged, le 7 juin 1985, dans le Néguev, en route pour visiter un de leurs enfants à Azmona, H'evel Yamit[10]. Il est enterré à Jérusalem, sur le Mont des Oliviers, en Israël.
-Son fils Dan Merzbach, âgé de 55 ans, architecte et rabbin, est tué par une sentinelle à Otniel, le 11 novembre 2011, son véhicule paraissant suspect[11],[12].
+Il est décédé avec son épouse dans un accident d'automobile causé par un autobus de la Coopérative d'autobus Egged, le 7 juin 1985, dans le Néguev, en route pour visiter un de leurs enfants à Azmona, H'evel Yamit. Il est enterré à Jérusalem, sur le Mont des Oliviers, en Israël.
+Son fils Dan Merzbach, âgé de 55 ans, architecte et rabbin, est tué par une sentinelle à Otniel, le 11 novembre 2011, son véhicule paraissant suspect,.
 Il est le pere du Rabbin Reouven Merzbach,membre du mouvement Netoure Karta.
 </t>
         </is>
@@ -551,13 +565,15 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Charles Merzbach (Dr). La Circoncision, guide du péritomiste. Préface du Dr Charles Heiselbeck. Fondation Sefer, Paris, 1952[13],[14].
-Charles Merzbach (Dr). La circoncision. Revue d’histoire de la médecine hébraïque,  No. 20. Paris, 1954[15].
-David Nieto. Maté Dan. Adapté et annoté par le Dr Charles Merzbach. Préface du Rabbin Joseph Bloch. Paris, Librairie Durlacher, 1955[16].
-Charles Merzbach. Au-delà des faits. Paris, La pensée universelle, 1982[17],[18],[19].
-Azriel Charles Merbach (Dr). L'Homme retrouvé. Préface de Renée Neher-Bernheim. Médiapresses, 1986[20].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Charles Merzbach (Dr). La Circoncision, guide du péritomiste. Préface du Dr Charles Heiselbeck. Fondation Sefer, Paris, 1952,.
+Charles Merzbach (Dr). La circoncision. Revue d’histoire de la médecine hébraïque,  No. 20. Paris, 1954.
+David Nieto. Maté Dan. Adapté et annoté par le Dr Charles Merzbach. Préface du Rabbin Joseph Bloch. Paris, Librairie Durlacher, 1955.
+Charles Merzbach. Au-delà des faits. Paris, La pensée universelle, 1982.
+Azriel Charles Merbach (Dr). L'Homme retrouvé. Préface de Renée Neher-Bernheim. Médiapresses, 1986.</t>
         </is>
       </c>
     </row>
